--- a/test case.xlsx
+++ b/test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikoh\Documents\Fazztrack\Latian automation test v2.0\SauceLab-cucumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0648E54A-517D-43F7-AC4A-362228718AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674BAEA8-737F-401E-9189-39A4E17A4CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{CF1D6921-748B-442A-90CD-C08D87784A82}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Nama URL</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>TS-01</t>
   </si>
   <si>
     <t>1.User inputing username
@@ -68,10 +65,6 @@
 3.and submit</t>
   </si>
   <si>
-    <t>user can login with correct username
-and password</t>
-  </si>
-  <si>
     <t>as expected</t>
   </si>
   <si>
@@ -81,10 +74,6 @@
   <si>
     <t>Status
 (Success/Failed)</t>
-  </si>
-  <si>
-    <t>User in login page
-user has registed acc</t>
   </si>
   <si>
     <t>Success</t>
@@ -104,36 +93,19 @@
     <t>Positive</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sauce lab-Demo</t>
-  </si>
-  <si>
     <t>Login with locked account</t>
   </si>
   <si>
-    <t>TS-02</t>
-  </si>
-  <si>
     <t>Negative</t>
   </si>
   <si>
     <t>User in login page</t>
   </si>
   <si>
-    <t>user cant login and locked
- in login page</t>
-  </si>
-  <si>
     <t>User ca not login</t>
   </si>
   <si>
     <t xml:space="preserve">Adding item to cart and </t>
-  </si>
-  <si>
-    <t>TS-03</t>
-  </si>
-  <si>
-    <t>User has account
-User in product page</t>
   </si>
   <si>
     <t>1.User in product page
@@ -143,19 +115,45 @@
 masuk ke dalam list atau belum</t>
   </si>
   <si>
-    <t>User can adding item cart and
- view it in cart page</t>
-  </si>
-  <si>
     <t>User successfully adding item 
 to cart</t>
+  </si>
+  <si>
+    <t>TS-0001</t>
+  </si>
+  <si>
+    <t>TS-0002</t>
+  </si>
+  <si>
+    <t>TS-0003</t>
+  </si>
+  <si>
+    <t>1.User in login page
+2.user has registed acc</t>
+  </si>
+  <si>
+    <t>1.User has account
+2.User in product page</t>
+  </si>
+  <si>
+    <t>1.user can login with correct username
+and password</t>
+  </si>
+  <si>
+    <t>1.user cant login and locked
+ in login page
+2.User accept the warning</t>
+  </si>
+  <si>
+    <t>1.User can adding item cart
+2.and view it in cart page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +169,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +195,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -215,11 +225,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,14 +284,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38DE281-C138-4218-BCDA-D9B2B69E8FB7}">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,7 +626,7 @@
     <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.88671875" customWidth="1"/>
     <col min="6" max="6" width="37.88671875" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
@@ -579,136 +635,139 @@
     <col min="10" max="10" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -716,11 +775,13 @@
       <c r="E6" s="3"/>
       <c r="F6" s="6"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -728,11 +789,13 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -740,11 +803,13 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -752,11 +817,13 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -764,11 +831,13 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -776,11 +845,13 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -788,11 +859,13 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -800,11 +873,13 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -812,11 +887,13 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -824,11 +901,13 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -836,9 +915,11 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -848,7 +929,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
@@ -860,11 +941,15 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>